--- a/docker/nginx/clang-vs-gcc.xlsx
+++ b/docker/nginx/clang-vs-gcc.xlsx
@@ -24,18 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Clang-3.9</t>
-  </si>
-  <si>
-    <t>gcc-4.9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>$ ab -n 1000 -c 100 http://127.0.0.1/hu</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>SUM</t>
@@ -54,6 +45,13 @@
   </si>
   <si>
     <t>gcc-4.9 time/req [ms]</t>
+  </si>
+  <si>
+    <t># Runs</t>
+  </si>
+  <si>
+    <t>Stack: Node.js/Express app through reverse-proxy, all requests cached by Nginx in /var/run
+OS: Debian Jessie in Docker</t>
   </si>
 </sst>
 </file>
@@ -90,10 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,7 +193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$B$3</c:f>
+              <c:f>Munka1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -227,7 +228,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$4:$B$18</c:f>
+              <c:f>Munka1!$B$5:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -291,7 +292,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$D$3</c:f>
+              <c:f>Munka1!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -326,7 +327,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$D$4:$D$18</c:f>
+              <c:f>Munka1!$D$5:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -660,7 +661,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$C$3</c:f>
+              <c:f>Munka1!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,7 +696,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$C$4:$C$18</c:f>
+              <c:f>Munka1!$C$5:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -759,7 +760,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$E$3</c:f>
+              <c:f>Munka1!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -794,7 +795,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$E$4:$E$18</c:f>
+              <c:f>Munka1!$E$5:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2138,16 +2139,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2943225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2168,16 +2169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2496,353 +2497,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>318.25</v>
-      </c>
-      <c r="C4">
-        <v>3.1419999999999999</v>
-      </c>
-      <c r="D4">
-        <v>353.96</v>
-      </c>
-      <c r="E4">
-        <v>2.8250000000000002</v>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>369.93</v>
+        <v>318.25</v>
       </c>
       <c r="C5">
-        <v>2.7029999999999998</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="D5">
-        <v>365.55</v>
+        <v>353.96</v>
       </c>
       <c r="E5">
-        <v>2.7360000000000002</v>
+        <v>2.8250000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>373.24</v>
+        <v>369.93</v>
       </c>
       <c r="C6">
-        <v>2.6789999999999998</v>
+        <v>2.7029999999999998</v>
       </c>
       <c r="D6">
-        <v>357.14</v>
+        <v>365.55</v>
       </c>
       <c r="E6">
-        <v>2.8</v>
+        <v>2.7360000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>369.3</v>
+        <v>373.24</v>
       </c>
       <c r="C7">
-        <v>2.7080000000000002</v>
+        <v>2.6789999999999998</v>
       </c>
       <c r="D7">
-        <v>366.61</v>
+        <v>357.14</v>
       </c>
       <c r="E7">
-        <v>2.7280000000000002</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>362.19</v>
+        <v>369.3</v>
       </c>
       <c r="C8">
-        <v>2.7610000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D8">
-        <v>367.26</v>
+        <v>366.61</v>
       </c>
       <c r="E8">
-        <v>2.7229999999999999</v>
+        <v>2.7280000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>398.79</v>
+        <v>362.19</v>
       </c>
       <c r="C9">
-        <v>2.508</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="D9">
-        <v>379.66</v>
+        <v>367.26</v>
       </c>
       <c r="E9">
-        <v>2.6339999999999999</v>
+        <v>2.7229999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>373.48</v>
+        <v>398.79</v>
       </c>
       <c r="C10">
-        <v>2.677</v>
+        <v>2.508</v>
       </c>
       <c r="D10">
-        <v>360.71</v>
+        <v>379.66</v>
       </c>
       <c r="E10">
-        <v>2.7719999999999998</v>
+        <v>2.6339999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>375.43</v>
+        <v>373.48</v>
       </c>
       <c r="C11">
-        <v>2.6640000000000001</v>
+        <v>2.677</v>
       </c>
       <c r="D11">
-        <v>383.32</v>
+        <v>360.71</v>
       </c>
       <c r="E11">
-        <v>2.609</v>
+        <v>2.7719999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>369.31</v>
+        <v>375.43</v>
       </c>
       <c r="C12">
-        <v>2.7080000000000002</v>
+        <v>2.6640000000000001</v>
       </c>
       <c r="D12">
-        <v>375.14</v>
+        <v>383.32</v>
       </c>
       <c r="E12">
-        <v>2.6659999999999999</v>
+        <v>2.609</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>376.1</v>
+        <v>369.31</v>
       </c>
       <c r="C13">
-        <v>2.6589999999999998</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="D13">
-        <v>374.02</v>
+        <v>375.14</v>
       </c>
       <c r="E13">
-        <v>2.6739999999999999</v>
+        <v>2.6659999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>383.12</v>
+        <v>376.1</v>
       </c>
       <c r="C14">
-        <v>2.61</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="D14">
-        <v>371.32</v>
+        <v>374.02</v>
       </c>
       <c r="E14">
-        <v>2.6930000000000001</v>
+        <v>2.6739999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>375.33</v>
+        <v>383.12</v>
       </c>
       <c r="C15">
-        <v>2.6640000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="D15">
-        <v>385.04</v>
+        <v>371.32</v>
       </c>
       <c r="E15">
-        <v>2.597</v>
+        <v>2.6930000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>349.59</v>
+        <v>375.33</v>
       </c>
       <c r="C16">
-        <v>2.86</v>
+        <v>2.6640000000000001</v>
       </c>
       <c r="D16">
-        <v>380.12</v>
+        <v>385.04</v>
       </c>
       <c r="E16">
-        <v>2.6309999999999998</v>
+        <v>2.597</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>378.99</v>
+        <v>349.59</v>
       </c>
       <c r="C17">
-        <v>2.6389999999999998</v>
+        <v>2.86</v>
       </c>
       <c r="D17">
-        <v>365.7</v>
+        <v>380.12</v>
       </c>
       <c r="E17">
-        <v>2.734</v>
+        <v>2.6309999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>374.78</v>
+        <v>378.99</v>
       </c>
       <c r="C18">
-        <v>2.6680000000000001</v>
+        <v>2.6389999999999998</v>
       </c>
       <c r="D18">
-        <v>372.6</v>
+        <v>365.7</v>
       </c>
       <c r="E18">
-        <v>2.6840000000000002</v>
+        <v>2.734</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="A19">
+        <v>15</v>
       </c>
       <c r="B19">
-        <f>SUM(B4:B18)</f>
-        <v>5547.83</v>
+        <v>374.78</v>
       </c>
       <c r="C19">
-        <f>SUM(C4:C18)</f>
-        <v>40.65</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="D19">
-        <f>SUM(D4:D18)</f>
-        <v>5558.1500000000005</v>
+        <v>372.6</v>
       </c>
       <c r="E19">
-        <f>SUM(E4:E18)</f>
-        <v>40.506</v>
+        <v>2.6840000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <f>B19/15</f>
+        <f>SUM(B5:B19)</f>
+        <v>5547.83</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C5:C19)</f>
+        <v>40.65</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D5:D19)</f>
+        <v>5558.1500000000005</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E5:E19)</f>
+        <v>40.506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>B20/15</f>
         <v>369.85533333333331</v>
       </c>
-      <c r="C20">
-        <f>C19/15</f>
+      <c r="C21">
+        <f>C20/15</f>
         <v>2.71</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:E20" si="0">D19/15</f>
+      <c r="D21">
+        <f t="shared" ref="D21:E21" si="0">D20/15</f>
         <v>370.54333333333335</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>2.7004000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
